--- a/metrics/R2/average & upto/Neuropatía.xlsx
+++ b/metrics/R2/average & upto/Neuropatía.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5776108669799912</v>
+        <v>0.49364864999758</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5776108669799912</v>
+        <v>0.49364864999758</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5776108669799912</v>
+        <v>0.49364864999758</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9971532402688765</v>
+        <v>0.9816011918715486</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9970444862795775</v>
+        <v>0.9810611778553107</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9970047506555497</v>
+        <v>0.9798092082590204</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9977476383556578</v>
+        <v>0.9737053308044328</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9977188372555115</v>
+        <v>0.975021373400241</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9977503559429055</v>
+        <v>0.9750851200479616</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9606738446860641</v>
+        <v>0.9512829706437022</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9640997886807415</v>
+        <v>0.9502916235074876</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9662584852990566</v>
+        <v>0.9447260222472542</v>
       </c>
     </row>
   </sheetData>
